--- a/Documents/Project Timeline.xlsx
+++ b/Documents/Project Timeline.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t xml:space="preserve">Project timeline</t>
   </si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">Design documentation</t>
   </si>
   <si>
+    <t xml:space="preserve">140 hour project</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weekend</t>
   </si>
   <si>
@@ -109,28 +112,18 @@
     <t xml:space="preserve">Demo</t>
   </si>
   <si>
-    <t xml:space="preserve">Feedback</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creating ML Algorithm</t>
   </si>
   <si>
     <t xml:space="preserve">Create ML Algorithm and </t>
   </si>
   <si>
-    <t xml:space="preserve">Feedback &amp;
- ML</t>
-  </si>
-  <si>
     <t xml:space="preserve">Good Friday</t>
   </si>
   <si>
     <t xml:space="preserve">East-er</t>
   </si>
   <si>
-    <t xml:space="preserve">Feedback &amp;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Products/details</t>
   </si>
   <si>
@@ -140,82 +133,90 @@
     <t xml:space="preserve">Requirement document</t>
   </si>
   <si>
-    <t xml:space="preserve">Class diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dashboard prototype</t>
+    <t xml:space="preserve">Class diagram and start dashboard prototype</t>
   </si>
   <si>
     <t xml:space="preserve">Add Retrospect</t>
   </si>
   <si>
-    <t xml:space="preserve">Start on ML</t>
+    <t xml:space="preserve">Research image recognition technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate data set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research possibility of extending dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create code to train the algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test and Optimize Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semester end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kings day</t>
   </si>
   <si>
     <t xml:space="preserve">Dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semester end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kings day</t>
+    <t xml:space="preserve">May break</t>
   </si>
   <si>
     <t xml:space="preserve">Study day</t>
   </si>
   <si>
-    <t xml:space="preserve">Feedback&amp;
-Dashboard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ascension Day</t>
   </si>
   <si>
@@ -226,6 +227,27 @@
   </si>
   <si>
     <t xml:space="preserve">End talk/presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create  prototype and start fronted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Front end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement image import and data cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup ML algorithm in the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect Algorithm with Import image system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing dashboard</t>
   </si>
 </sst>
 </file>
@@ -238,7 +260,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
@@ -288,18 +310,18 @@
       <color rgb="FFE46C0A"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="31"/>
-      <color rgb="FFE46C0A"/>
+      <sz val="18"/>
+      <color rgb="FF0D0D0D"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF0D0D0D"/>
+      <sz val="9"/>
+      <color rgb="FF404040"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -311,8 +333,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,13 +374,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B9B8"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFFFAA95"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2A6099"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFE6B9B8"/>
       </patternFill>
     </fill>
     <fill>
@@ -453,36 +493,36 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -490,7 +530,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -501,15 +541,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,11 +557,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,52 +605,52 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="29" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="29" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -625,12 +665,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -707,7 +759,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFE6B9B8"/>
       <rgbColor rgb="FF3366FF"/>
@@ -739,11 +791,11 @@
   </sheetPr>
   <dimension ref="A1:CB25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ24" activeCellId="0" sqref="AJ24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="30" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="30" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.87"/>
@@ -789,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="n">
-        <f aca="true">TODAY()-1</f>
+        <f aca="false">DATE(2022, 2, 21)</f>
         <v>44613</v>
       </c>
       <c r="D2" s="5"/>
@@ -1745,270 +1797,287 @@
         <v>24</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23" t="s">
+      <c r="G9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24" t="s">
+      <c r="H9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="23" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="22" t="s">
+      <c r="V9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="24"/>
+      <c r="X9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="AP9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="26" t="s">
+      <c r="AQ9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="23" t="s">
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="26" t="s">
+      <c r="AX9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="23" t="s">
+      <c r="BA9" s="28"/>
+      <c r="BB9" s="28"/>
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF9" s="23"/>
-      <c r="BG9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="BL9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM9" s="23"/>
+      <c r="BL9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="30.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="F10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="22" t="s">
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22" t="s">
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="22" t="s">
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="30" t="s">
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="23"/>
-      <c r="AS10" s="26"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="23"/>
-      <c r="AY10" s="23"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="31"/>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="27"/>
-      <c r="BE10" s="23"/>
-      <c r="BF10" s="23"/>
-      <c r="BG10" s="24"/>
-      <c r="BH10" s="31"/>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="BK10" s="26"/>
-      <c r="BL10" s="23"/>
-      <c r="BM10" s="23"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="29"/>
+      <c r="BE10" s="24"/>
+      <c r="BF10" s="24"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI10" s="33"/>
+      <c r="BJ10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK10" s="23"/>
+      <c r="BL10" s="24"/>
+      <c r="BM10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="30.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="23"/>
-      <c r="AY11" s="23"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="27"/>
-      <c r="BE11" s="23"/>
-      <c r="BF11" s="23"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="30"/>
-      <c r="BK11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="BL11" s="23"/>
-      <c r="BM11" s="23"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="29"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="32"/>
+      <c r="BK11" s="23"/>
+      <c r="BL11" s="24"/>
+      <c r="BM11" s="24"/>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="22.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
         <v>2</v>
@@ -2108,15 +2177,15 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="8" t="s">
         <v>52</v>
       </c>
@@ -2126,15 +2195,15 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
-      <c r="X14" s="33" t="s">
+      <c r="X14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
       <c r="AE14" s="8" t="s">
         <v>54</v>
       </c>
@@ -2144,15 +2213,15 @@
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
-      <c r="AL14" s="33" t="s">
+      <c r="AL14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
       <c r="AS14" s="8" t="s">
         <v>56</v>
       </c>
@@ -2162,15 +2231,15 @@
       <c r="AW14" s="8"/>
       <c r="AX14" s="8"/>
       <c r="AY14" s="8"/>
-      <c r="AZ14" s="33" t="s">
+      <c r="AZ14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BA14" s="33"/>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="33"/>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
       <c r="BG14" s="8" t="s">
         <v>58</v>
       </c>
@@ -2955,119 +3024,129 @@
         <v>59</v>
       </c>
       <c r="D18" s="37"/>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="25" t="s">
         <v>60</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="23"/>
+      <c r="H18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="24"/>
       <c r="Q18" s="37" t="s">
         <v>59</v>
       </c>
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="23" t="s">
+      <c r="U18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="W18" s="23"/>
-      <c r="X18" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y18" s="24" t="s">
+      <c r="V18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W18" s="24"/>
+      <c r="X18" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="Z18" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB18" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" s="23" t="s">
+      <c r="Y18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AD18" s="23"/>
+      <c r="AC18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" s="24"/>
       <c r="AE18" s="37" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AF18" s="37"/>
       <c r="AG18" s="37"/>
-      <c r="AH18" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK18" s="23"/>
+      <c r="AH18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK18" s="24"/>
       <c r="AL18" s="37" t="s">
         <v>59</v>
       </c>
       <c r="AM18" s="37"/>
       <c r="AN18" s="37"/>
       <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="23" t="s">
+      <c r="AP18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AR18" s="23"/>
-      <c r="AS18" s="24" t="s">
-        <v>64</v>
+      <c r="AQ18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="AT18" s="37" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AU18" s="37"/>
       <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="23" t="s">
+      <c r="AW18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AY18" s="23"/>
-      <c r="AZ18" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA18" s="22"/>
-      <c r="BB18" s="22"/>
-      <c r="BC18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="23" t="s">
+      <c r="AX18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="BF18" s="23"/>
+      <c r="BE18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF18" s="24"/>
       <c r="BG18" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BH18" s="21"/>
       <c r="BI18" s="21"/>
       <c r="BJ18" s="21"/>
       <c r="BK18" s="21"/>
-      <c r="BL18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM18" s="23"/>
+      <c r="BL18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM18" s="24"/>
       <c r="BN18" s="36"/>
       <c r="BO18" s="36"/>
       <c r="BP18" s="36"/>
@@ -3086,145 +3165,165 @@
     </row>
     <row r="19" customFormat="false" ht="30.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="D19" s="37"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="37"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA19" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="37" t="s">
+        <v>72</v>
+      </c>
       <c r="AF19" s="37"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="23"/>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="37"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="AU19" s="37"/>
       <c r="AV19" s="37"/>
-      <c r="AW19" s="37"/>
-      <c r="AX19" s="23"/>
-      <c r="AY19" s="23"/>
-      <c r="AZ19" s="22"/>
-      <c r="BA19" s="22"/>
-      <c r="BB19" s="22"/>
-      <c r="BC19" s="25"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="23"/>
-      <c r="BF19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="26"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
       <c r="BG19" s="21"/>
       <c r="BH19" s="21"/>
       <c r="BI19" s="21"/>
       <c r="BJ19" s="21"/>
       <c r="BK19" s="21"/>
-      <c r="BL19" s="23"/>
-      <c r="BM19" s="23"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="30.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="20"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
       <c r="AE20" s="37"/>
       <c r="AF20" s="37"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="23"/>
-      <c r="AR20" s="23"/>
-      <c r="AS20" s="24"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="25"/>
       <c r="AT20" s="37"/>
       <c r="AU20" s="37"/>
       <c r="AV20" s="37"/>
-      <c r="AW20" s="37"/>
-      <c r="AX20" s="23"/>
-      <c r="AY20" s="23"/>
-      <c r="AZ20" s="22"/>
-      <c r="BA20" s="22"/>
-      <c r="BB20" s="22"/>
-      <c r="BC20" s="25"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="23"/>
-      <c r="BF20" s="23"/>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="24"/>
+      <c r="BF20" s="24"/>
       <c r="BG20" s="21"/>
       <c r="BH20" s="21"/>
       <c r="BI20" s="21"/>
       <c r="BJ20" s="21"/>
       <c r="BK20" s="21"/>
-      <c r="BL20" s="23"/>
-      <c r="BM20" s="23"/>
+      <c r="BL20" s="24"/>
+      <c r="BM20" s="24"/>
     </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AQ25" s="39"/>
+      <c r="AQ25" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="118">
     <mergeCell ref="B1:AD1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:I4"/>
@@ -3246,36 +3345,46 @@
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="BG5:BM5"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:I11"/>
     <mergeCell ref="J9:N11"/>
     <mergeCell ref="O9:P11"/>
     <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="U9:U11"/>
     <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
-    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="AI9:AI11"/>
     <mergeCell ref="AJ9:AK11"/>
     <mergeCell ref="AL9:AN9"/>
     <mergeCell ref="AP9:AP11"/>
     <mergeCell ref="AQ9:AR11"/>
-    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AW9:AW11"/>
     <mergeCell ref="AX9:AY11"/>
     <mergeCell ref="AZ9:BC9"/>
     <mergeCell ref="BD9:BD11"/>
     <mergeCell ref="BE9:BF11"/>
     <mergeCell ref="BG9:BG11"/>
     <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BK9:BK10"/>
+    <mergeCell ref="BK9:BK11"/>
     <mergeCell ref="BL9:BM11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:S11"/>
+    <mergeCell ref="Q10:S11"/>
     <mergeCell ref="T10:T11"/>
+    <mergeCell ref="X10:AA11"/>
+    <mergeCell ref="AE10:AF11"/>
+    <mergeCell ref="AG10:AH11"/>
+    <mergeCell ref="AL10:AN11"/>
     <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AS10:AV11"/>
+    <mergeCell ref="AZ10:BC11"/>
+    <mergeCell ref="BH10:BI11"/>
     <mergeCell ref="BJ10:BJ11"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="J13:P13"/>
@@ -3297,11 +3406,12 @@
     <mergeCell ref="BG14:BM14"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="H18:I20"/>
-    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J18:N20"/>
     <mergeCell ref="O18:P20"/>
-    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:U20"/>
     <mergeCell ref="V18:W20"/>
     <mergeCell ref="Y18:Y20"/>
     <mergeCell ref="AB18:AB20"/>
@@ -3309,31 +3419,29 @@
     <mergeCell ref="AE18:AG18"/>
     <mergeCell ref="AH18:AI20"/>
     <mergeCell ref="AJ18:AK20"/>
-    <mergeCell ref="AL18:AP18"/>
+    <mergeCell ref="AL18:AO18"/>
+    <mergeCell ref="AP18:AP20"/>
     <mergeCell ref="AQ18:AR20"/>
     <mergeCell ref="AS18:AS20"/>
-    <mergeCell ref="AT18:AW18"/>
+    <mergeCell ref="AT18:AV18"/>
+    <mergeCell ref="AW18:AW20"/>
     <mergeCell ref="AX18:AY20"/>
     <mergeCell ref="AZ18:BB20"/>
+    <mergeCell ref="BD18:BD20"/>
     <mergeCell ref="BE18:BF20"/>
     <mergeCell ref="BG18:BK20"/>
     <mergeCell ref="BL18:BM20"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:T20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Z19:Z20"/>
     <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AL19:AP19"/>
-    <mergeCell ref="AT19:AW19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AL20:AP20"/>
-    <mergeCell ref="AT20:AW20"/>
+    <mergeCell ref="AE19:AG20"/>
+    <mergeCell ref="AL19:AO20"/>
+    <mergeCell ref="AT19:AV20"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:BM8 C16:BM17">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
